--- a/biology/Médecine/Union_régionale_des_professionnels_de_santé/Union_régionale_des_professionnels_de_santé.xlsx
+++ b/biology/Médecine/Union_régionale_des_professionnels_de_santé/Union_régionale_des_professionnels_de_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Union_r%C3%A9gionale_des_professionnels_de_sant%C3%A9</t>
+          <t>Union_régionale_des_professionnels_de_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>En France, les Unions régionales des professionnels de santé (URPS) représentent les professionnels de santé libéraux en fonction de leur secteur d'activités. Elles ont été créées par la Loi portant réforme de l'hôpital et relative aux patients, à la santé et aux territoires (HPST) du 21 juillet 2009[1] et ont le statut d'Association loi de 1901.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>En France, les Unions régionales des professionnels de santé (URPS) représentent les professionnels de santé libéraux en fonction de leur secteur d'activités. Elles ont été créées par la Loi portant réforme de l'hôpital et relative aux patients, à la santé et aux territoires (HPST) du 21 juillet 2009 et ont le statut d'Association loi de 1901.
 Il existe une URPS par région pour les professions suivantes : 
 Médecins libéraux (ex URML),
 Infirmiers libéraux,
